--- a/medicine/Maladie à coronavirus 2019/La_Bulle_(film,_2022)/La_Bulle_(film,_2022).xlsx
+++ b/medicine/Maladie à coronavirus 2019/La_Bulle_(film,_2022)/La_Bulle_(film,_2022).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Bulle (The Bubble) est un film américain réalisé par Judd Apatow et sorti en 2022 sur Netflix.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En pleine pandémie de Covid-19, une troupe d'acteurs tourne le blockbuster Cliff Beasts 6: The Battle for Everest - Memories of a Requiem. En raison de la crise sanitaire, le plateau de tournage — situé en Angleterre — est soumis à des règles strictes et est quasiment coupé du reste du monde.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : The Bubble
@@ -565,9 +581,9 @@
 Format : couleur - son Dolby Digital - tourné avec des caméras Sony Venice
 Genre : comédie
 Durée : 105 minutes
-Date de sortie[1] :
+Date de sortie :
 Monde : 1er avril 2022 (sur Netflix)
-Classification[2] :
+Classification :
 États-Unis : R</t>
         </is>
       </c>
@@ -596,7 +612,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Karen Gillan (VF : Laëtitia Lefebvre) : Carol Cobb
 Iris Apatow (VF : Kelly Marot) : Krystal Kris
@@ -627,7 +645,7 @@
 Beck Hansen (VF : Pascal Nowak) : lui-même
 James McAvoy (VF : Alexis Victor) : lui-même
 version française réalisée par la société de doublage Dubbing Brothers, sous la direction artistique de Christophe Lemoine, avec une adaptation des dialogues de Carole Tischker.
- Source et légende : version française (VF) sur RS Doublage[3]</t>
+ Source et légende : version française (VF) sur RS Doublage</t>
         </is>
       </c>
     </row>
@@ -655,11 +673,13 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En novembre 2020, il est annoncé que le prochain film de Judd Apatow sera diffusé sur Netflix et qu'il aura pour sujet la production d'un film durant la pandémie de Covid-19[4].
-En février 2021, Karen Gillan, Iris Apatow, Fred Armisen, Maria Bakalova, David Duchovny, Keegan-Michael Key, Leslie Mann, Pedro Pascal ou encore Peter Serafinowicz sont annoncés[5]. D'autres actrices et acteurs rejoignent le film le mois suivant : Vir Das (en), Rob Delaney, Galen Hopper, Samson Kayo (en), Guz Khan (en), Nick Kocher, Ross Lee (en), Harry Trevaldwyn et Danielle Vitalis[6].
-Le tournage débute le 22 février 2021 et s'achève le 16 avril 2021. Il se déroule au Royaume-Uni[7],[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En novembre 2020, il est annoncé que le prochain film de Judd Apatow sera diffusé sur Netflix et qu'il aura pour sujet la production d'un film durant la pandémie de Covid-19.
+En février 2021, Karen Gillan, Iris Apatow, Fred Armisen, Maria Bakalova, David Duchovny, Keegan-Michael Key, Leslie Mann, Pedro Pascal ou encore Peter Serafinowicz sont annoncés. D'autres actrices et acteurs rejoignent le film le mois suivant : Vir Das (en), Rob Delaney, Galen Hopper, Samson Kayo (en), Guz Khan (en), Nick Kocher, Ross Lee (en), Harry Trevaldwyn et Danielle Vitalis.
+Le tournage débute le 22 février 2021 et s'achève le 16 avril 2021. Il se déroule au Royaume-Uni,.
 </t>
         </is>
       </c>
@@ -688,9 +708,11 @@
           <t>Sortie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 2 mars 2022, Netflix diffuse une bande-annonce mystérieuse d'un film intitulé Cliff Beasts 6: The Battle for Everest: Memories of the Requiem rappelant la franchise Jurassic Park. Il est quelque temps plus tard révélé qu'il s'agit d'un faux teaser pour annoncer la sortie de La Bulle[9]. Le film sera diffusé sur Netflix dès le 1er avril 2022.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 2 mars 2022, Netflix diffuse une bande-annonce mystérieuse d'un film intitulé Cliff Beasts 6: The Battle for Everest: Memories of the Requiem rappelant la franchise Jurassic Park. Il est quelque temps plus tard révélé qu'il s'agit d'un faux teaser pour annoncer la sortie de La Bulle. Le film sera diffusé sur Netflix dès le 1er avril 2022.
 </t>
         </is>
       </c>
